--- a/data/ryp_student_database_300hr.xlsx
+++ b/data/ryp_student_database_300hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,12 +692,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aamiya Vyas</t>
+          <t>Adi yakubov</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -707,13 +707,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>aamiyavyas@gmail.com</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>adeey0307@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>559299878</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -727,30 +731,22 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -762,19 +758,15 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>hold 10.11</t>
+          <t>Hold until 19.11</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -801,12 +793,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Theresa Gundlach</t>
+          <t>Luna Clarysse</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -814,20 +806,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>+49 1573 9286088</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>lunaclarysse14@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -836,29 +828,53 @@
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>17-Nov-2024</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr"/>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -886,12 +902,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Homa Afshar</t>
+          <t>Aamiya Vyas</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -899,16 +915,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>aamiyavyas@gmail.com</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -929,7 +949,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -940,29 +960,33 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>24-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>hold 15.11</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
           <t>1</t>
@@ -987,12 +1011,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ariana Gee</t>
+          <t>Theresa Gundlach</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1001,10 +1025,14 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>+49 1573 9286088</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1018,46 +1046,26 @@
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>20-Sep-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1850</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -1088,12 +1096,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hannah Joseph </t>
+          <t>Millene Bastos de Oliveira Barra Ramos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1101,9 +1109,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1127,7 +1143,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1148,7 +1164,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>10-Sep-2024</t>
+          <t>6-Oct</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
@@ -1193,12 +1209,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Millene Bastos de Oliveira Barra Ramos</t>
+          <t>Ariana Gee</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1206,15 +1222,11 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1240,18 +1252,18 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1261,25 +1273,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>6-Oct</t>
+          <t>20-Sep-2024</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
@@ -1306,24 +1310,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ade</t>
+          <t>Homa Afshar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1333,7 +1337,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1355,12 +1359,12 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1370,23 +1374,19 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
-        </is>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
@@ -1411,17 +1411,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Adrian Sotelo</t>
+          <t>Aleisha Harris</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1434,13 +1434,13 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1461,27 +1461,27 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1-Aug-2024</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
@@ -1508,42 +1508,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mihaela Covaci</t>
+          <t>Ade</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>myhaela.covacy180@gmail.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1562,33 +1562,33 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>22-Aug-2024</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
+        </is>
+      </c>
       <c r="Z11" t="inlineStr">
         <is>
           <t>1</t>
@@ -1613,40 +1613,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Stephanie Kössler</t>
+          <t>Adrian Sotelo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>stephanie_koessler@icloud.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1656,7 +1652,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1667,41 +1663,29 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>554.18</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>24-Sep-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2645.82</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>1</t>
@@ -1726,12 +1710,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sasha Norman</t>
+          <t>Mihaela Covaci</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1741,17 +1725,13 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>sash.norman@yahoo.com</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>12693669440</t>
-        </is>
-      </c>
+          <t>myhaela.covacy180@gmail.com</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1761,15 +1741,11 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1777,7 +1753,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1788,31 +1764,31 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>553.92</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>13-Sep-2024</t>
-        </is>
-      </c>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2646.08</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Stripe</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
@@ -1839,12 +1815,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aleisha Harris</t>
+          <t>Stephanie Kössler</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1852,12 +1828,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>stephanie_koessler@icloud.com</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1878,7 +1858,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1894,24 +1874,36 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>554.18</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1-Aug-2024</t>
+          <t>24-Sep-2024</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
+          <t>2645.82</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
+        </is>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
@@ -1926,22 +1918,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>April 12, 2025</t>
+          <t>February 17, 2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Sasha Norman</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1949,12 +1941,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>sash.norman@yahoo.com</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12693669440</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1963,7 +1967,11 @@
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1971,7 +1979,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1987,62 +1995,58 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>553.92</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>01 Nov 2024</t>
+          <t>13-Sep-2024</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2646.08</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Wise</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2 extra day - before and after @ $90</t>
-        </is>
-      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>April 12, 2025 to May 10, 2025</t>
+          <t>February 17, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>April 12, 2025</t>
+          <t>February 17, 2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sina Bloch</t>
+          <t xml:space="preserve">Hannah Joseph </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2050,24 +2054,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sina.bloch@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>41798475529</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2076,7 +2068,11 @@
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2084,7 +2080,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2095,49 +2091,45 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>26 Nov 2023</t>
+          <t>10-Sep-2024</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>moved from Oct 2024</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>April 12, 2025 to May 10, 2025</t>
+          <t>February 17, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -2154,26 +2146,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sandeep Sandhu</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2185,11 +2173,7 @@
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2197,18 +2181,18 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2218,23 +2202,27 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>7 Jun 2024</t>
+          <t>01 Nov 2024</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2480</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2 extra day - before and after @ $90</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr">
         <is>
           <t>2</t>
@@ -2259,12 +2247,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ramona (Samin Yoga)</t>
+          <t>Sina Bloch</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2272,23 +2260,43 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>sina.bloch@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>41798475529</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2297,29 +2305,41 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>30 Sep 2024</t>
+          <t>26 Nov 2023</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>moved from Oct 2024</t>
+        </is>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
           <t>2</t>
@@ -2344,22 +2364,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Luidmila</t>
+          <t>Sandeep Sandhu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2383,18 +2407,18 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2404,27 +2428,23 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>11 Oct 2024</t>
+          <t>7 Jun 2024</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>Other - Talk to Ruchi</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Mustard allergy</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
           <t>2</t>
@@ -2449,12 +2469,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Qian</t>
+          <t>Ramona (Samin Yoga)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2462,20 +2482,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>qianwang201023@gmail.com</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2485,16 +2497,8 @@
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instagram </t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2508,40 +2512,24 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>01 Nov 2024</t>
+          <t>30 Sep 2024</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>2645</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy Free and Gluten Free</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>check in on 11.04 and check out on 11.05 // lactose intolerant</t>
-        </is>
-      </c>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
           <t>2</t>
@@ -2556,22 +2544,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>November 14, 2025</t>
+          <t>April 12, 2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Monica Julieth Castillo Ruiz</t>
+          <t>Luidmila</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2579,35 +2567,35 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>castleika.7@gmail.com</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>5167650499</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2616,31 +2604,253 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>11 Oct 2024</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Other - Talk to Ruchi</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Mustard allergy</t>
+        </is>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>April 12, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>April 12, 2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Qian</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>qianwang201023@gmail.com</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instagram </t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>01 Nov 2024</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy Free and Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>check in on 11.04 and check out on 11.05 // lactose intolerant</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>April 12, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>November 14, 2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>December 12, 2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Monica Julieth Castillo Ruiz</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>castleika.7@gmail.com</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>5167650499</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>November 14, 2025 to December 12, 2025</t>
         </is>

--- a/data/ryp_student_database_300hr.xlsx
+++ b/data/ryp_student_database_300hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Adi yakubov</t>
+          <t>Aamiya Vyas</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -705,24 +705,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>adeey0307@gmail.com</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>559299878</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -731,44 +723,52 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>19-Nov</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>1725</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Hold until 19.11</t>
-        </is>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
           <t>1</t>
@@ -798,7 +798,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Luna Clarysse</t>
+          <t>Adi yakubov</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -808,13 +808,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>lunaclarysse14@gmail.com</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>adeey0307@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>559299878</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -861,7 +865,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>17-Nov-2024</t>
+          <t>18-Nov-2024</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
@@ -872,7 +876,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -907,7 +911,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Aamiya Vyas</t>
+          <t>Luna Clarysse</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -917,13 +921,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>aamiyavyas@gmail.com</t>
+          <t>lunaclarysse14@gmail.com</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -955,38 +959,38 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>17-Nov-2024</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>hold 15.11</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
           <t>1</t>
@@ -1011,12 +1015,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Theresa Gundlach</t>
+          <t>Homa Afshar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1025,14 +1029,10 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>+49 1573 9286088</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1046,26 +1046,46 @@
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>24-Oct-2024</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -1310,12 +1330,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Homa Afshar</t>
+          <t>Theresa Gundlach</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1324,10 +1344,14 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>+49 1573 9286088</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1341,46 +1365,26 @@
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>24-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -2146,12 +2150,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Sina Bloch</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2159,17 +2163,29 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>sina.bloch@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>41798475529</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -2192,35 +2208,39 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>01 Nov 2024</t>
+          <t>26 Nov 2023</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>609</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2 extra day - before and after @ $90</t>
+          <t>moved from Oct 2024</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2247,46 +2267,42 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sina Bloch</t>
+          <t>Sandeep Sandhu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>sina.bloch@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>41798475529</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2294,52 +2310,44 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>26 Nov 2023</t>
+          <t>7 Jun 2024</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>609</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>moved from Oct 2024</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>2</t>
@@ -2364,26 +2372,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sandeep Sandhu</t>
+          <t>Ramona (Samin Yoga)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2395,30 +2399,18 @@
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2428,21 +2420,17 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>7 Jun 2024</t>
+          <t>30 Sep 2024</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
@@ -2469,12 +2457,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ramona (Samin Yoga)</t>
+          <t>Luidmila</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2496,9 +2484,21 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>30 Sep 2024</t>
+          <t>11 Oct 2024</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -2528,8 +2528,16 @@
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Other - Talk to Ruchi</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Mustard allergy</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr">
         <is>
           <t>2</t>
@@ -2554,12 +2562,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Luidmila</t>
+          <t>Qian</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2567,12 +2575,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>qianwang201023@gmail.com</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2581,11 +2597,7 @@
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2593,7 +2605,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -2609,30 +2621,38 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>555</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>11 Oct 2024</t>
+          <t>01 Nov 2024</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Other - Talk to Ruchi</t>
+          <t>Vegan/Dairy Free and Gluten Free</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Mustard allergy</t>
+          <t>check in on 11.04 and check out on 11.05 // lactose intolerant</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2659,12 +2679,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Qian</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2672,20 +2692,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>qianwang201023@gmail.com</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2702,7 +2714,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -2718,7 +2730,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2729,27 +2741,19 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy Free and Gluten Free</t>
-        </is>
-      </c>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>check in on 11.04 and check out on 11.05 // lactose intolerant</t>
+          <t>2 extra day - before and after @ $90</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -2766,12 +2770,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>November 14, 2025</t>
+          <t>July 29, 2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>August 06, 2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2781,24 +2785,16 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Monica Julieth Castillo Ruiz</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Teisha Harvey</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>castleika.7@gmail.com</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>5167650499</t>
-        </is>
-      </c>
+          <t>teishah02@gmail.com</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -2819,11 +2815,7 @@
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t>2500</t>
@@ -2852,7 +2844,201 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
+          <t>July 29, 2025 to August 06, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>November 14, 2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>December 12, 2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Monica Julieth Castillo Ruiz</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>castleika.7@gmail.com</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5167650499</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
           <t>November 14, 2025 to December 12, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>January 07, 2026</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>February 04, 2026</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Michelle Henter</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Direct - I was recommended to visit</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Feb 2024</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Moved from 23-Dec-2024 to this batch due to health reasons</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>January 07, 2026 to February 04, 2026</t>
         </is>
       </c>
     </row>

--- a/data/ryp_student_database_300hr.xlsx
+++ b/data/ryp_student_database_300hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,12 +692,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aamiya Vyas</t>
+          <t>ioulia Gotsis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -705,16 +705,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>iouliagotsis24@gmail.com</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -741,31 +741,35 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>555</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>19-Nov</t>
+          <t>28-Nov-2024</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1725</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr"/>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
@@ -798,7 +802,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Adi yakubov</t>
+          <t>Aamiya Vyas</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -806,24 +810,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>adeey0307@gmail.com</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>559299878</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -850,35 +846,31 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>18-Nov-2024</t>
+          <t>19-Nov</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>1725</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -911,7 +903,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Luna Clarysse</t>
+          <t>Adi yakubov</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -921,13 +913,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>lunaclarysse14@gmail.com</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>adeey0307@gmail.com</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>559299878</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -974,7 +970,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>17-Nov-2024</t>
+          <t>18-Nov-2024</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -985,7 +981,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
@@ -1015,12 +1011,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Homa Afshar</t>
+          <t>Luna Clarysse</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1028,16 +1024,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>lunaclarysse14@gmail.com</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1058,13 +1058,13 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1074,21 +1074,25 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>555</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>24-Oct-2024</t>
+          <t>17-Nov-2024</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -1116,12 +1120,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Millene Bastos de Oliveira Barra Ramos</t>
+          <t>Theresa Gundlach</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1129,15 +1133,15 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>+49 1573 9286088</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1151,58 +1155,30 @@
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Direct - I was recommended to visit</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>6-Oct</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
@@ -1229,12 +1205,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ariana Gee</t>
+          <t>Millene Bastos de Oliveira Barra Ramos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1242,11 +1218,15 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1272,18 +1252,18 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1293,17 +1273,25 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>20-Sep-2024</t>
+          <t>6-Oct</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1850</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
@@ -1330,12 +1318,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Theresa Gundlach</t>
+          <t>Ariana Gee</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1344,14 +1332,10 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>+49 1573 9286088</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1365,26 +1349,46 @@
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Search Engines - Google, Safari etc..</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>20-Sep-2024</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1415,12 +1419,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aleisha Harris</t>
+          <t>Natalia YTC  (Daniel's GF in 200 hrs)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1430,7 +1434,11 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1438,7 +1446,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1454,7 +1462,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1465,7 +1473,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1473,15 +1481,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>1-Aug-2024</t>
-        </is>
-      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1512,26 +1516,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ade</t>
+          <t>Aleisha Harris</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1576,23 +1576,19 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>1-Aug-2024</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
-        </is>
-      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
           <t>1</t>
@@ -1617,12 +1613,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Adrian Sotelo</t>
+          <t>Ade</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1632,7 +1628,11 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1640,13 +1640,13 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1667,29 +1667,33 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>22-Aug-2024</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
+        </is>
+      </c>
       <c r="Z12" t="inlineStr">
         <is>
           <t>1</t>
@@ -1714,33 +1718,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mihaela Covaci</t>
+          <t>Adrian Sotelo (500Hr)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>myhaela.covacy180@gmail.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ROMANIA</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1749,7 +1745,11 @@
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1768,26 +1768,22 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
           <t>No</t>
@@ -1819,12 +1815,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Stephanie Kössler</t>
+          <t>Mihaela Covaci</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1834,11 +1830,15 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>stephanie_koessler@icloud.com</t>
+          <t>myhaela.covacy180@gmail.com</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1846,15 +1846,11 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1873,41 +1869,33 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>554.18</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>24-Sep-2024</t>
-        </is>
-      </c>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2645.82</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
-        </is>
-      </c>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
@@ -1932,12 +1920,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sasha Norman</t>
+          <t>Stephanie Kössler</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1947,19 +1935,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>sash.norman@yahoo.com</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>12693669440</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+          <t>stephanie_koessler@icloud.com</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1983,7 +1963,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1999,28 +1979,36 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>553.92</t>
+          <t>554.18</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>13-Sep-2024</t>
+          <t>24-Sep-2024</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2646.08</t>
+          <t>2645.82</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr">
         <is>
           <t>1</t>
@@ -2045,12 +2033,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hannah Joseph </t>
+          <t>Sasha Norman</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2058,17 +2046,29 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>sash.norman@yahoo.com</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12693669440</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2095,35 +2095,31 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>553.92</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>10-Sep-2024</t>
+          <t>13-Sep-2024</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2646.08</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Stripe</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
@@ -2140,22 +2136,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>April 12, 2025</t>
+          <t>February 17, 2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sina Bloch</t>
+          <t xml:space="preserve">Hannah Joseph </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2163,24 +2159,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sina.bloch@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>41798475529</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2189,7 +2173,11 @@
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2197,7 +2185,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -2208,49 +2196,45 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>26 Nov 2023</t>
+          <t>10-Sep-2024</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>moved from Oct 2024</t>
-        </is>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>April 12, 2025 to May 10, 2025</t>
+          <t>February 17, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -2267,87 +2251,79 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sandeep Sandhu</t>
+          <t>Adriana</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>adriana@elementagency.sk</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>421904355598</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>7 Jun 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Hold until 3.12</t>
+        </is>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
           <t>2</t>
@@ -2372,12 +2348,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ramona (Samin Yoga)</t>
+          <t>Victoria Pollak</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2385,23 +2361,43 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>pollakvictoria@gmail.com</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(917)750-9292 </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2410,27 +2406,35 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>555</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>30 Sep 2024</t>
+          <t>28-Nov-2024</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Doku</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
@@ -2457,12 +2461,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Luidmila</t>
+          <t>Fatemeh</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2470,25 +2474,29 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Rezqifatemeh@gmail.com</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2496,7 +2504,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -2507,37 +2515,29 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>11 Oct 2024</t>
+          <t>29-Nov-2024</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Other - Talk to Ruchi</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Mustard allergy</t>
-        </is>
-      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
           <t>2</t>
@@ -2562,12 +2562,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Qian</t>
+          <t>Homa Afshar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2575,29 +2575,29 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>qianwang201023@gmail.com</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2605,54 +2605,42 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>01 Nov 2024</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2645</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy Free and Gluten Free</t>
-        </is>
-      </c>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>check in on 11.04 and check out on 11.05 // lactose intolerant</t>
+          <t>Moved from 17-Feb to 12-Apr</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2770,103 +2758,127 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 29, 2025</t>
+          <t>April 12, 2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>August 06, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Teisha Harvey</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>teishah02@gmail.com</t>
-        </is>
-      </c>
+          <t>Luidmila YTP (Ref DS)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>11 Oct 2024</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Other - Talk to Ruchi</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Mustard allergy</t>
+        </is>
+      </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>July 29, 2025 to August 06, 2025</t>
+          <t>April 12, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>November 14, 2025</t>
+          <t>April 12, 2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Monica Julieth Castillo Ruiz</t>
+          <t>Sejal Mashru</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2874,25 +2886,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>castleika.7@gmail.com</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>5167650499</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2902,7 +2910,11 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -2911,65 +2923,77 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>30 Sep 2024</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>November 14, 2025 to December 12, 2025</t>
+          <t>April 12, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>January 07, 2026</t>
+          <t>April 12, 2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>February 04, 2026</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Michelle Henter</t>
+          <t>Sandeep Sandhu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2981,7 +3005,11 @@
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2989,54 +3017,668 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
+          <t>2880</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>7 Jun 2024</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>April 12, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>April 12, 2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sina Bloch</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>sina.bloch@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>41798475529</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2150</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1541</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>26 Nov 2023</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>moved from Oct 2024</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>April 12, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>April 12, 2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Qian</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>qianwang201023@gmail.com</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instagram </t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>3200</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>01 Nov 2024</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy Free and Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>check in on 11.04 and check out on 11.05 // lactose intolerant</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>April 12, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>July 29, 2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>August 06, 2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Teisha Harvey</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>teishah02@gmail.com</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>July 29, 2025 to August 06, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>November 14, 2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>December 12, 2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Monica Julieth Castillo Ruiz</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>castleika.7@gmail.com</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>5167650499</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>November 14, 2025 to December 12, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>January 07, 2026</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>February 04, 2026</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Michelle Henter</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Direct - I was recommended to visit</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>400</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>Feb 2024</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>2800</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>2800</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr">
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
         <is>
           <t>Moved from 23-Dec-2024 to this batch due to health reasons</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>January 07, 2026 to February 04, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>January 07, 2026</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>February 04, 2026</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wenning</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>sunwenning93@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>00 61 405 501 0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sydney Australia</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>2498.1</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Transfer credit from Yang Li (previously booked into the December 23rd 2024- Jan 11th 2025 200Hrs YTT in Bali Mansion)</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
         <is>
           <t>January 07, 2026 to February 04, 2026</t>
         </is>

--- a/data/ryp_student_database_300hr.xlsx
+++ b/data/ryp_student_database_300hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Victoria Pollak</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2266,15 +2266,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>adriana@elementagency.sk</t>
+          <t>pollakvictoria@gmail.com</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>421904355598</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t xml:space="preserve">(917)750-9292 </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2292,7 +2296,11 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2306,24 +2314,32 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>28-Nov-2024</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2500</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Doku</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Hold until 3.12</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>2</t>
@@ -2348,12 +2364,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Victoria Pollak</t>
+          <t>Fatemeh</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2363,17 +2379,13 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>pollakvictoria@gmail.com</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(917)750-9292 </t>
-        </is>
-      </c>
+          <t>Rezqifatemeh@gmail.com</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2395,7 +2407,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -2411,30 +2423,22 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>28-Nov-2024</t>
+          <t>29-Nov-2024</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Doku</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
@@ -2461,12 +2465,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Homa Afshar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2474,20 +2478,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Rezqifatemeh@gmail.com</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2496,7 +2496,11 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2504,13 +2508,13 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2520,24 +2524,28 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>29-Nov-2024</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Moved from 17-Feb to 12-Apr</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr">
         <is>
           <t>2</t>
@@ -2562,12 +2570,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Homa Afshar</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2577,11 +2585,7 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2589,15 +2593,11 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2605,18 +2605,18 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2626,21 +2626,25 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>24-Oct-2024</t>
+          <t>01 Nov 2024</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Moved from 17-Feb to 12-Apr</t>
+          <t>2 extra day - before and after @ $90</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2667,12 +2671,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Sejal Mashru</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2682,7 +2686,11 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2723,7 +2731,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>01 Nov 2024</t>
+          <t>30 Sep 2024</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2732,18 +2740,14 @@
           <t>2800</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>2 extra day - before and after @ $90</t>
-        </is>
-      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
           <t>2</t>
@@ -2873,24 +2877,24 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sejal Mashru</t>
+          <t>Sandeep Sandhu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2904,7 +2908,11 @@
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2912,18 +2920,18 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2933,13 +2941,13 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>30 Sep 2024</t>
+          <t>7 Jun 2024</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -2974,42 +2982,46 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sandeep Sandhu</t>
+          <t>Sina Bloch</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sina.bloch@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>41798475529</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3017,44 +3029,52 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>7 Jun 2024</t>
+          <t>26 Nov 2023</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>2480</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>moved from Oct 2024</t>
+        </is>
+      </c>
       <c r="Z25" t="inlineStr">
         <is>
           <t>2</t>
@@ -3079,12 +3099,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sina Bloch</t>
+          <t>Qian</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3094,17 +3114,13 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>sina.bloch@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>41798475529</t>
-        </is>
-      </c>
+          <t>qianwang201023@gmail.com</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3114,7 +3130,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -3126,7 +3142,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -3137,39 +3153,43 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>555</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>26 Nov 2023</t>
+          <t>01 Nov 2024</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy Free and Gluten Free</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>moved from Oct 2024</t>
+          <t>check in on 11.04 and check out on 11.05 // lactose intolerant</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3186,40 +3206,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>April 12, 2025</t>
+          <t>July 29, 2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>August 06, 2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Qian</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
+          <t>Teisha Harvey</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>qianwang201023@gmail.com</t>
+          <t>teishah02@gmail.com</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -3227,7 +3239,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -3237,78 +3249,50 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instagram </t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>01 Nov 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2645</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy Free and Gluten Free</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>check in on 11.04 and check out on 11.05 // lactose intolerant</t>
-        </is>
-      </c>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>April 12, 2025 to May 10, 2025</t>
+          <t>July 29, 2025 to August 06, 2025</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 29, 2025</t>
+          <t>November 14, 2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>August 06, 2025</t>
+          <t>December 12, 2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3318,16 +3302,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Teisha Harvey</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>Monica Julieth Castillo Ruiz</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>teishah02@gmail.com</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>castleika.7@gmail.com</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>5167650499</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
@@ -3348,7 +3340,11 @@
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr">
         <is>
           <t>2500</t>
@@ -3372,24 +3368,24 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>July 29, 2025 to August 06, 2025</t>
+          <t>November 14, 2025 to December 12, 2025</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>November 14, 2025</t>
+          <t>January 07, 2026</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>February 04, 2026</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3399,7 +3395,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Monica Julieth Castillo Ruiz</t>
+          <t>Michelle Henter</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3407,25 +3403,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>castleika.7@gmail.com</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>5167650499</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -3435,7 +3423,11 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Direct - I was recommended to visit</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3444,33 +3436,45 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Feb 2024</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Moved from 23-Dec-2024 to this batch due to health reasons</t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>November 14, 2025 to December 12, 2025</t>
+          <t>January 07, 2026 to February 04, 2026</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3491,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Michelle Henter</t>
+          <t>Wenning</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3500,17 +3504,29 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>sunwenning93@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>00 61 405 501 0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Sydney Australia</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -3522,7 +3538,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -3533,27 +3549,23 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Feb 2024</t>
-        </is>
-      </c>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>600</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2498.1</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -3561,7 +3573,7 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Moved from 23-Dec-2024 to this batch due to health reasons</t>
+          <t>Transfer credit from Yang Li (previously booked into the December 23rd 2024- Jan 11th 2025 200Hrs YTT in Bali Mansion)</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3570,115 +3582,6 @@
         </is>
       </c>
       <c r="AA30" t="inlineStr">
-        <is>
-          <t>January 07, 2026 to February 04, 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>January 07, 2026</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>February 04, 2026</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Wenning</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>sunwenning93@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>00 61 405 501 0</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Sydney Australia</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>HOM</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Twin share</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>2500</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>2498.1</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>Transfer credit from Yang Li (previously booked into the December 23rd 2024- Jan 11th 2025 200Hrs YTT in Bali Mansion)</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
         <is>
           <t>January 07, 2026 to February 04, 2026</t>
         </is>

--- a/data/ryp_student_database_300hr.xlsx
+++ b/data/ryp_student_database_300hr.xlsx
@@ -2777,7 +2777,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Luidmila YTP (Ref DS)</t>
+          <t>Victoria Zaretsky</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2787,7 +2787,11 @@
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>RYP</t>

--- a/data/ryp_student_database_300hr.xlsx
+++ b/data/ryp_student_database_300hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Petra Eve Beaucamp</t>
+          <t>Sasha Norman</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -598,10 +598,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>petra.eva.beaucamp@gmail.com</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>sash.norman@yahoo.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12693669440</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>USA</t>
@@ -630,7 +634,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -646,23 +650,23 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>3198.92</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>10-Sep-2024</t>
+          <t>13-Sep-2024</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -692,12 +696,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ioulia Gotsis</t>
+          <t>Menik Suyani</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -705,16 +709,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>iouliagotsis24@gmail.com</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -735,41 +735,37 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>28-Nov-2024</t>
+          <t>10-Jan</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
@@ -797,26 +793,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aamiya Vyas</t>
+          <t>Renan T Batista (500Hr)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -830,7 +822,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -840,18 +832,18 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -861,19 +853,23 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>19-Nov</t>
+          <t>3 Jan 2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>500 hrs student, charged as per 500 hrs fee</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>1</t>
@@ -898,12 +894,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Adi yakubov</t>
+          <t>Diana Palimariu</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -913,19 +909,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>adeey0307@gmail.com</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>559299878</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Israel</t>
-        </is>
-      </c>
+          <t>dianaioanapal@gmail.com</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -949,7 +937,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -960,7 +948,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -970,13 +958,13 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>18-Nov-2024</t>
+          <t>29 Dec 2024</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1845</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -984,9 +972,17 @@
           <t>Xendit</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HOM alumni. She has a history of sciatica and did find she had pain in her lower back when she forced too much too long in some postures which then she would need to treat with rest and painkillers. She would bring the painkillers with her and want to be very mindful of the movement she makes. </t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
           <t>1</t>
@@ -1011,12 +1007,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Luna Clarysse</t>
+          <t>ioulia Gotsis</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1026,15 +1022,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>lunaclarysse14@gmail.com</t>
+          <t>iouliagotsis24@gmail.com</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -1074,23 +1066,23 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>17-Nov-2024</t>
+          <t>28-Nov-2024</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
@@ -1120,12 +1112,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Theresa Gundlach</t>
+          <t>Natalia YTC  (Daniel's GF in 200 hrs)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1134,14 +1126,10 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>+49 1573 9286088</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1155,26 +1143,42 @@
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -1205,12 +1209,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Millene Bastos de Oliveira Barra Ramos</t>
+          <t>Aamiya Vyas</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1218,15 +1222,11 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1252,18 +1252,18 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1273,25 +1273,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>6-Oct</t>
+          <t>19-Nov</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1725</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
@@ -1318,12 +1310,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ariana Gee</t>
+          <t>Adi yakubov</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1331,16 +1323,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>adeey0307@gmail.com</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>559299878</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1361,37 +1361,41 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>20-Sep-2024</t>
+          <t>18-Nov-2024</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1850</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
@@ -1419,12 +1423,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Natalia YTC  (Daniel's GF in 200 hrs)</t>
+          <t>Luna Clarysse</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1432,16 +1436,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>lunaclarysse14@gmail.com</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1478,20 +1486,32 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>2414.12</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>17-Nov-2024</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Taxi arrangement</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
           <t>1</t>
@@ -1516,12 +1536,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aleisha Harris</t>
+          <t>Srishti</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1539,7 +1559,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1550,23 +1570,23 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1574,15 +1594,11 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1-Aug-2024</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1613,24 +1629,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ade</t>
+          <t>Millene Bastos de Oliveira Barra Ramos</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1640,7 +1660,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1656,7 +1676,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1667,7 +1687,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1677,23 +1697,27 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>6-Oct</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2700</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
-        </is>
-      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>1</t>
@@ -1718,22 +1742,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Adrian Sotelo (500Hr)</t>
+          <t>Ariana Gee</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1747,7 +1775,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1763,32 +1791,32 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>20-Sep-2024</t>
+        </is>
+      </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
@@ -1815,12 +1843,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mihaela Covaci</t>
+          <t xml:space="preserve">Hannah Joseph </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1828,20 +1856,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>myhaela.covacy180@gmail.com</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ROMANIA</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1850,7 +1870,11 @@
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -1858,7 +1882,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1874,19 +1898,23 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>10-Sep-2024</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -1920,12 +1948,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Stephanie Kössler</t>
+          <t>Aleisha Harris</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1933,16 +1961,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>stephanie_koessler@icloud.com</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1963,7 +1987,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1979,36 +2003,24 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>554.18</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>24-Sep-2024</t>
+          <t>1-Aug-2024</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2645.82</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
-        </is>
-      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
           <t>1</t>
@@ -2033,37 +2045,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sasha Norman</t>
+          <t>Ade</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sash.norman@yahoo.com</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>12693669440</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2084,7 +2088,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2095,33 +2099,33 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>553.92</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13-Sep-2024</t>
+          <t>22-Aug-2024</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2646.08</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Stripe</t>
-        </is>
-      </c>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
+        </is>
+      </c>
       <c r="Z16" t="inlineStr">
         <is>
           <t>1</t>
@@ -2146,17 +2150,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hannah Joseph </t>
+          <t>Adrian Sotelo (500Hr)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -2175,7 +2179,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2196,30 +2200,22 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>10-Sep-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
           <t>No</t>
@@ -2241,22 +2237,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>April 12, 2025</t>
+          <t>February 17, 2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Victoria Pollak</t>
+          <t>Mihaela Covaci</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2266,17 +2262,13 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>pollakvictoria@gmail.com</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(917)750-9292 </t>
-        </is>
-      </c>
+          <t>myhaela.covacy180@gmail.com</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2298,7 +2290,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -2314,23 +2306,23 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>28-Nov-2024</t>
+          <t>24-Sep-2024</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Doku</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2339,37 +2331,41 @@
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Finalizing her 200YTT Online with HOM</t>
+        </is>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>April 12, 2025 to May 10, 2025</t>
+          <t>February 17, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>April 12, 2025</t>
+          <t>February 17, 2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Stephanie Kössler</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2379,15 +2375,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rezqifatemeh@gmail.com</t>
+          <t>stephanie_koessler@icloud.com</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2395,11 +2387,15 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2407,7 +2403,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -2418,59 +2414,71 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>3199.18</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>29-Nov-2024</t>
+          <t>24-Sep-2024</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1250</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
+        </is>
+      </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>April 12, 2025 to May 10, 2025</t>
+          <t>February 17, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>April 12, 2025</t>
+          <t>February 17, 2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Homa Afshar</t>
+          <t>Theresa Gundlach</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2479,10 +2487,14 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>+49 1573 9286088</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2496,64 +2508,40 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>24-Oct-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Moved from 17-Feb to 12-Apr</t>
-        </is>
-      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>April 12, 2025 to May 10, 2025</t>
+          <t>February 17, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -2570,17 +2558,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Alexander Binns</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -2598,55 +2586,31 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Direct (ex student)</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>01 Nov 2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>2 extra day - before and after @ $90</t>
-        </is>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
           <t>2</t>
@@ -2671,12 +2635,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sejal Mashru</t>
+          <t>Lisa Fröhlich</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2684,21 +2648,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>lisa.froehlich22@gmail.com</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2710,7 +2678,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -2721,31 +2689,23 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>30 Sep 2024</t>
-        </is>
-      </c>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
@@ -2772,12 +2732,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Victoria Zaretsky</t>
+          <t>Ruba Alharbi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2789,7 +2749,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Soudi Arabia</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2799,7 +2759,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2815,7 +2775,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -2826,7 +2786,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2836,27 +2796,19 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>11 Oct 2024</t>
+          <t>18-Dec</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Other - Talk to Ruchi</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Mustard allergy</t>
-        </is>
-      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
           <t>2</t>
@@ -2881,42 +2833,46 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sandeep Sandhu</t>
+          <t>Victoria Pollak</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>pollakvictoria@gmail.com</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(917)750-9292 </t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2924,37 +2880,41 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>555</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>7 Jun 2024</t>
+          <t>28-Nov-2024</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>2480</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr"/>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Doku</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr">
         <is>
           <t>No</t>
@@ -2986,12 +2946,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sina Bloch</t>
+          <t>Fatemeh</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3001,17 +2961,13 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>sina.bloch@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>41798475529</t>
-        </is>
-      </c>
+          <t>Rezqifatemeh@gmail.com</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3033,7 +2989,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3044,41 +3000,29 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>26 Nov 2023</t>
+          <t>29-Nov-2024</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>609</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
-        </is>
-      </c>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>moved from Oct 2024</t>
-        </is>
-      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
           <t>2</t>
@@ -3103,12 +3047,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Qian</t>
+          <t>Homa Afshar</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3116,29 +3060,29 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>qianwang201023@gmail.com</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3146,54 +3090,42 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>01 Nov 2024</t>
+          <t>24-Oct-2024</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2645</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy Free and Gluten Free</t>
-        </is>
-      </c>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>check in on 11.04 and check out on 11.05 // lactose intolerant</t>
+          <t>Moved from 17-Feb to 12-Apr</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3210,32 +3142,40 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 29, 2025</t>
+          <t>April 12, 2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>August 06, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Teisha Harvey</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>Qian</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>teishah02@gmail.com</t>
+          <t>qianwang201023@gmail.com</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -3243,7 +3183,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -3253,60 +3193,92 @@
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instagram </t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>01 Nov 2024</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2500</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy Free and Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>check in on 11.04 // lactose intolerant</t>
+        </is>
+      </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>July 29, 2025 to August 06, 2025</t>
+          <t>April 12, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>November 14, 2025</t>
+          <t>April 12, 2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>December 12, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Monica Julieth Castillo Ruiz</t>
+          <t>Victoria Zaretsky</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3314,35 +3286,39 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>castleika.7@gmail.com</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>5167650499</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3351,55 +3327,67 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>11 Oct 2024</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Other - Talk to Ruchi</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Mustard allergy</t>
+        </is>
+      </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>November 14, 2025 to December 12, 2025</t>
+          <t>April 12, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>January 07, 2026</t>
+          <t>April 12, 2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>February 04, 2026</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Michelle Henter</t>
+          <t>Sejal Mashru</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3409,7 +3397,11 @@
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -3429,7 +3421,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -3450,47 +3442,43 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Feb 2024</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
+          <t>30 Sep 2024</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
         <is>
           <t>2800</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>2800</t>
-        </is>
-      </c>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Moved from 23-Dec-2024 to this batch due to health reasons</t>
-        </is>
-      </c>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>January 07, 2026 to February 04, 2026</t>
+          <t>April 12, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>January 07, 2026</t>
+          <t>April 12, 2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>February 04, 2026</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3500,41 +3488,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wenning</t>
+          <t>Sandeep Sandhu</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>sunwenning93@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>00 61 405 501 0</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sydney Australia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3542,50 +3526,898 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>2880</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>7 Jun 2024</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>April 12, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>April 12, 2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sina Bloch</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>sina.bloch@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>41798475529</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2150</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>1541</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>26 Nov 2023</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>moved from Oct 2024</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>April 12, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>April 12, 2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Amina</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>01 Nov 2024</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Wise</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2 extra day - before and after @ $90</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>April 12, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>June 05, 2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>July 03, 2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Petra Eve Beaucamp</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>petra.eva.beaucamp@gmail.com</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>10-Sep-2024</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>moved from March</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>June 05, 2025 to July 03, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>July 29, 2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>August 26, 2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Karen Murphy</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>karenmurphy934@gmail.com</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>2500</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>will pay on 17th Jan // Vegetarian // asthmatic but with an inhaler, she'll be fine // finishing her 200YTT in HOM Melati in May</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>July 29, 2025 to August 26, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>July 29, 2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>August 26, 2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Emma Fassion</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>emmaafassion@gmail.com</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>18 Jan 2025</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>July 29, 2025 to August 26, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>September 21, 2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>October 19, 2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tatiana D Rodionova</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>rodionovatd@gmail.com</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>(631) 704-7112</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>22 Jan 2025</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>HOM Alumni discount. She paid to the incorrect paypal account</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>September 21, 2025 to October 19, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>January 07, 2026</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>February 04, 2026</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Michelle Henter</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Direct - I was recommended to visit</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Feb 2024</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Moved from 23-Dec-2024 to this batch due to health reasons</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>January 07, 2026 to February 04, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>January 07, 2026</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>February 04, 2026</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wenning</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>sunwenning93@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>00 61 405 501 0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Sydney Australia</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
         <is>
           <t>1.9</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr">
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>2498.1</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr">
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
         <is>
           <t>Transfer credit from Yang Li (previously booked into the December 23rd 2024- Jan 11th 2025 200Hrs YTT in Bali Mansion)</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
         <is>
           <t>January 07, 2026 to February 04, 2026</t>
         </is>

--- a/data/ryp_student_database_300hr.xlsx
+++ b/data/ryp_student_database_300hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,7 +671,12 @@
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Arrival: Pickup from Delhi Airport (DEL) on Monday, February 17, 2025, at 08:55 AM.
+Departure: Drop-off at Delhi Airport (DEL) on Monday, March 17, 2025, for my 9:25 PM flight (morning pickup preferred).</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>1</t>
@@ -696,12 +701,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Menik Suyani</t>
+          <t>Pallavi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -728,16 +733,8 @@
           <t>No</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Direct - I was recommended to visit</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -754,11 +751,7 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>10-Jan</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
@@ -793,17 +786,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Renan T Batista (500Hr)</t>
+          <t>Srishti</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -822,12 +815,12 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Sales assisted booking</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -838,12 +831,12 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -851,25 +844,17 @@
           <t>400</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>3 Jan 2025</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>500 hrs student, charged as per 500 hrs fee</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
           <t>1</t>
@@ -894,12 +879,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Diana Palimariu</t>
+          <t>Menik Suyani</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -907,16 +892,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>dianaioanapal@gmail.com</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -937,52 +918,40 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>29 Dec 2024</t>
+          <t>10-Jan</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1845</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HOM alumni. She has a history of sciatica and did find she had pain in her lower back when she forced too much too long in some postures which then she would need to treat with rest and painkillers. She would bring the painkillers with her and want to be very mindful of the movement she makes. </t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
           <t>1</t>
@@ -1007,29 +976,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ioulia Gotsis</t>
+          <t>Renan T Batista (500Hr)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>iouliagotsis24@gmail.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1040,7 +1005,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1050,7 +1015,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -1061,33 +1026,33 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>28-Nov-2024</t>
+          <t>3 Jan 2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>1700</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>500 hrs student, charged as per 500 hrs fee</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
           <t>1</t>
@@ -1112,12 +1077,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Natalia YTC  (Daniel's GF in 200 hrs)</t>
+          <t>Diana Palimariu</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1125,16 +1090,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>dianaioanapal@gmail.com</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1155,7 +1120,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1166,25 +1131,41 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>29 Dec 2024</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+          <t>1845</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HOM alumni. She has a history of sciatica and did find she had pain in her lower back when she forced too much too long in some postures which then she would need to treat with rest and painkillers. She would bring the painkillers with her and want to be very mindful of the movement she makes. </t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
           <t>1</t>
@@ -1209,12 +1190,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Aamiya Vyas</t>
+          <t>ioulia Gotsis</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1222,16 +1203,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>iouliagotsis24@gmail.com</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1258,31 +1239,35 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2125</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>19-Nov</t>
+          <t>28-Nov-2024</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1725</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -1310,12 +1295,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Adi yakubov</t>
+          <t>Natalia YTC  (Daniel's GF in 200 hrs)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1323,24 +1308,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>adeey0307@gmail.com</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>559299878</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1377,25 +1354,17 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2500</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>18-Nov-2024</t>
-        </is>
-      </c>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
@@ -1423,12 +1392,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Luna Clarysse</t>
+          <t>Adi yakubov</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1438,13 +1407,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>lunaclarysse14@gmail.com</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>adeey0307@gmail.com</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>559299878</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1486,30 +1459,30 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2414.12</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>17-Nov-2024</t>
+          <t>18-Nov-2024</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Taxi arrangement</t>
+          <t>problem with her visa</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1536,12 +1509,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Srishti</t>
+          <t>Luna Clarysse</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1549,12 +1522,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>lunaclarysse14@gmail.com</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1570,41 +1551,53 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Sales assisted booking</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>2414.12</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>17-Nov-2024</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1850</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Stripe</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Taxi arrangement</t>
+        </is>
+      </c>
       <c r="Z11" t="inlineStr">
         <is>
           <t>1</t>
@@ -1629,12 +1622,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Millene Bastos de Oliveira Barra Ramos</t>
+          <t>Aamiya Vyas</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1642,15 +1635,11 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1676,18 +1665,18 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2125</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1697,25 +1686,17 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>6-Oct</t>
+          <t>19-Nov</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1725</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
@@ -1742,12 +1723,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ariana Gee</t>
+          <t>Millene Bastos de Oliveira Barra Ramos</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1755,11 +1736,15 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Millenebastosyogaspa@gmail.com / Millenebastos1@gmail.com</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1785,18 +1770,18 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct - I was recommended to visit</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1806,17 +1791,25 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>20-Sep-2024</t>
+          <t>6-Oct</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1850</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
@@ -1843,12 +1836,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hannah Joseph </t>
+          <t>Ariana Gee</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1858,7 +1851,11 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -1888,12 +1885,12 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1903,25 +1900,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>10-Sep-2024</t>
+          <t>20-Sep-2024</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
@@ -1948,12 +1937,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aleisha Harris</t>
+          <t xml:space="preserve">Hannah Joseph </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1971,7 +1960,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1998,7 +1987,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2008,17 +1997,25 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1-Aug-2024</t>
+          <t>10-Sep-2024</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
@@ -2045,26 +2042,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ade</t>
+          <t>Aleisha Harris</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2099,7 +2092,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2109,23 +2102,19 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>22-Aug-2024</t>
+          <t>1-Aug-2024</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
           <t>1</t>
@@ -2150,12 +2139,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Adrian Sotelo (500Hr)</t>
+          <t>Ade</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2165,7 +2154,11 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2173,13 +2166,13 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2200,29 +2193,33 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>22-Aug-2024</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>$100 discount as he paid $100 extra by mistake when he came for 200 hrs TTC</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr">
         <is>
           <t>1</t>
@@ -2247,33 +2244,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mihaela Covaci</t>
+          <t>Adrian Sotelo (500Hr)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>myhaela.covacy180@gmail.com</t>
-        </is>
-      </c>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ROMANIA</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2282,7 +2271,11 @@
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2290,7 +2283,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -2301,41 +2294,29 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2500</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>24-Sep-2024</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Finalizing her 200YTT Online with HOM</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>1</t>
@@ -2360,12 +2341,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Stephanie Kössler</t>
+          <t>Mihaela Covaci</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2375,11 +2356,15 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>stephanie_koessler@icloud.com</t>
+          <t>myhaela.covacy180@gmail.com</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -2387,15 +2372,11 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2414,12 +2395,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>3199.18</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2430,23 +2411,23 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>Gluten Free</t>
-        </is>
-      </c>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
+          <t>Taxi arrangement. She has completed her 200hr YTT via HOM Online training. Certificate is sent via email</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2473,12 +2454,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Theresa Gundlach</t>
+          <t>Stephanie Kössler</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2486,54 +2467,82 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>+49 1573 9286088</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>stephanie_koessler@icloud.com</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>3199.18</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>24-Sep-2024</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr"/>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>She also has a seafood allergy. Regarding injuries, she's currently working with an osteopath on a few issues likely stemming from childhood, though they haven't impacted her yoga journey thus far</t>
+        </is>
+      </c>
       <c r="Z20" t="inlineStr">
         <is>
           <t>1</t>
@@ -2548,32 +2557,40 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>April 12, 2025</t>
+          <t>February 17, 2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>March 17, 2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Alexander Binns</t>
+          <t>Theresa Gundlach</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>+49 1573 9286088</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2586,25 +2603,33 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Direct - I was recommended to visit</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -2613,12 +2638,12 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>April 12, 2025 to May 10, 2025</t>
+          <t>February 17, 2025 to March 17, 2025</t>
         </is>
       </c>
     </row>
@@ -2635,12 +2660,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lisa Fröhlich</t>
+          <t>Fatemeh</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2650,13 +2675,13 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>lisa.froehlich22@gmail.com</t>
+          <t>Rezqifatemeh@gmail.com</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2678,7 +2703,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -2694,14 +2719,18 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>29-Nov-2024</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -2732,26 +2761,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ruba Alharbi</t>
+          <t>Alexander Binns</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Soudi Arabia</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -2759,50 +2784,30 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Search Engines - Google, Safari etc..</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>18-Dec</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -2833,12 +2838,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Victoria Pollak</t>
+          <t>Lisa Fröhlich</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2848,17 +2853,13 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>pollakvictoria@gmail.com</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(917)750-9292 </t>
-        </is>
-      </c>
+          <t>lisa.froehlich22@gmail.com</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2899,27 +2900,15 @@
           <t>555</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>28-Nov-2024</t>
-        </is>
-      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>Doku</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
@@ -2946,12 +2935,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fatemeh</t>
+          <t>Ruba Alharbi</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2959,20 +2948,16 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Rezqifatemeh@gmail.com</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Soudi Arabia</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2981,7 +2966,11 @@
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -2989,7 +2978,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3005,18 +2994,18 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>29-Nov-2024</t>
+          <t>18-Dec</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -3047,12 +3036,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Homa Afshar</t>
+          <t>Victoria Pollak</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3060,16 +3049,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>pollakvictoria@gmail.com</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(917)750-9292 </t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3078,11 +3075,7 @@
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3090,13 +3083,13 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -3106,28 +3099,32 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>555</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>24-Oct-2024</t>
+          <t>28-Nov-2024</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Doku</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>Moved from 17-Feb to 12-Apr</t>
-        </is>
-      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
           <t>2</t>
@@ -3152,12 +3149,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Qian</t>
+          <t>Homa Afshar</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3165,29 +3162,29 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>qianwang201023@gmail.com</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3195,7 +3192,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instagram </t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3206,47 +3203,31 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>01 Nov 2024</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
+          <t>24-Oct-2024</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2645</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>PayPal</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>Vegan/Dairy Free and Gluten Free</t>
-        </is>
-      </c>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>check in on 11.04 // lactose intolerant</t>
+          <t>Moved from 17-Feb to 12-Apr</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3273,12 +3254,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Victoria Zaretsky</t>
+          <t>Sina Bloch</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3286,29 +3267,33 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>sina.bloch@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>41798475529</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3327,35 +3312,39 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>11 Oct 2024</t>
+          <t>26 Nov 2023</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>Other - Talk to Ruchi</t>
-        </is>
-      </c>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Mustard allergy</t>
+          <t>moved from Oct 2024</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3382,12 +3371,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sejal Mashru</t>
+          <t>Qian</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3395,16 +3384,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>qianwang201023@gmail.com</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3421,7 +3414,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t xml:space="preserve">Instagram </t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -3437,28 +3430,44 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>555</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>30 Sep 2024</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr"/>
+          <t>01 Nov 2024</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr"/>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy Free and Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>check in on 11.04 // lactose intolerant</t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
           <t>2</t>
@@ -3483,24 +3492,24 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sandeep Sandhu</t>
+          <t>Victoria Zaretsky</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3526,18 +3535,18 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Search Engines - Google, Safari etc..</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -3547,23 +3556,27 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>7 Jun 2024</t>
+          <t>11 Oct 2024</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Other - Talk to Ruchi</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>Mustard allergy</t>
+        </is>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
           <t>2</t>
@@ -3588,12 +3601,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sina Bloch</t>
+          <t>Sejal Mashru</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3601,29 +3614,21 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>sina.bloch@hotmail.com</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>41798475529</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>US</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -3646,41 +3651,33 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>26 Nov 2023</t>
+          <t>30 Sep 2024</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>609</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Xendit</t>
-        </is>
-      </c>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Yes - 1st Change (previous batch start in 6 months of this batch)</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>moved from Oct 2024</t>
-        </is>
-      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
           <t>2</t>
@@ -3705,22 +3702,26 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Sandeep Sandhu</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>RYP</t>
@@ -3732,7 +3733,11 @@
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3740,18 +3745,18 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Direct (ex student)</t>
+          <t>Search Engines - Google, Safari etc..</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3761,27 +3766,23 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>01 Nov 2024</t>
+          <t>7 Jun 2024</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2800</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Wise</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>2 extra day - before and after @ $90</t>
-        </is>
-      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
           <t>2</t>
@@ -3796,22 +3797,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>June 05, 2025</t>
+          <t>April 12, 2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>July 03, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Petra Eve Beaucamp</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3819,20 +3820,12 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>petra.eva.beaucamp@gmail.com</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3841,11 +3834,7 @@
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3869,52 +3858,52 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>400</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>10-Sep-2024</t>
+          <t>01 Nov 2024</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Xendit</t>
+          <t>Wise</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>moved from March</t>
+          <t>2 extra day - before and after @ $90</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>June 05, 2025 to July 03, 2025</t>
+          <t>April 12, 2025 to May 10, 2025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>July 29, 2025</t>
+          <t>June 05, 2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>July 03, 2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3924,7 +3913,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Karen Murphy</t>
+          <t>Petra Eve Beaucamp</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3934,11 +3923,15 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>karenmurphy934@gmail.com</t>
+          <t>petra.eva.beaucamp@gmail.com</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -3946,11 +3939,15 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -3958,60 +3955,68 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>10-Sep-2024</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2500</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Xendit</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>will pay on 17th Jan // Vegetarian // asthmatic but with an inhaler, she'll be fine // finishing her 200YTT in HOM Melati in May</t>
+          <t>moved from March</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>July 29, 2025 to August 26, 2025</t>
+          <t>June 05, 2025 to July 03, 2025</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>July 29, 2025</t>
+          <t>June 05, 2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>August 26, 2025</t>
+          <t>July 03, 2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4021,7 +4026,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Emma Fassion</t>
+          <t>Laurèl Baele</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4029,25 +4034,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>emmaafassion@gmail.com</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>RYP</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -4059,14 +4056,14 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+          <t>Direct (ex student)</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -4076,53 +4073,49 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>18 Jan 2025</t>
+          <t>26-Jan</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2640</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>July 29, 2025 to August 26, 2025</t>
+          <t>June 05, 2025 to July 03, 2025</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>September 21, 2025</t>
+          <t>June 05, 2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>October 19, 2025</t>
+          <t>July 03, 2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tatiana D Rodionova</t>
+          <t>Maria Ines</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4132,15 +4125,15 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>rodionovatd@gmail.com</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>(631) 704-7112</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>juri.mariaines@gmail.com</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -4152,7 +4145,11 @@
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
           <t>Sales assisted booking</t>
@@ -4163,65 +4160,61 @@
           <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>5100</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>955</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>22 Jan 2025</t>
+          <t>2 Feb 2025</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Xendit</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>HOM Alumni discount. She paid to the incorrect paypal account</t>
+          <t>500YTT // deducted with $300 online course credit</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>September 21, 2025 to October 19, 2025</t>
+          <t>June 05, 2025 to July 03, 2025</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>January 07, 2026</t>
+          <t>July 29, 2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>February 04, 2026</t>
+          <t>August 26, 2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4231,7 +4224,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Michelle Henter</t>
+          <t>Emma Fassion</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4239,17 +4232,25 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>emmaafassion@gmail.com</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>RYP</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Private</t>
+          <t>Twin share</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -4261,18 +4262,14 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Direct - I was recommended to visit</t>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4282,57 +4279,53 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Feb 2024</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>2800</t>
-        </is>
-      </c>
+          <t>18 Jan 2025</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>Moved from 23-Dec-2024 to this batch due to health reasons</t>
-        </is>
-      </c>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>January 07, 2026 to February 04, 2026</t>
+          <t>July 29, 2025 to August 26, 2025</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>January 07, 2026</t>
+          <t>September 21, 2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>February 04, 2026</t>
+          <t>October 19, 2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wenning</t>
+          <t>Tatiana D Rodionova</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4342,19 +4335,15 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>sunwenning93@hotmail.com</t>
+          <t>rodionovatd@gmail.com</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>00 61 405 501 0</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Sydney Australia</t>
-        </is>
-      </c>
+          <t>(631) 704-7112</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
           <t>HOM</t>
@@ -4362,7 +4351,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Twin share</t>
+          <t>Private</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -4377,47 +4366,459 @@
           <t>Direct (new student) - Self-aware of RYP or HOM</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>22 Jan 2025</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2498.1</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr"/>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
+          <t>HOM Alumni discount. She paid to the incorrect paypal account</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>September 21, 2025 to October 19, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>September 21, 2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>October 19, 2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ashira paraskevas</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Ashira.paraskevas@gmail.com</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>Hold Feb 6th // wrist sensitivity but no big deal</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>September 21, 2025 to October 19, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>September 21, 2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>October 19, 2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Anna Askew</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>annakaskew@gmail.com</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>(615)497-0704</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>554.18</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>4 Feb 2025</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1945.82</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>PayPal</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>September 21, 2025 to October 19, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>January 07, 2026</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>February 04, 2026</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Michelle Henter</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>RYP</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Direct - I was recommended to visit</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Feb 2024</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>Moved from 23-Dec-2024 to this batch due to health reasons</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>January 07, 2026 to February 04, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>January 07, 2026</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>February 04, 2026</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Wenning</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sunwenning93@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>00 61 405 501 0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Sydney Australia</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Twin share</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Direct (new student) - Self-aware of RYP or HOM</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>2498.1</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
+        <is>
           <t>Transfer credit from Yang Li (previously booked into the December 23rd 2024- Jan 11th 2025 200Hrs YTT in Bali Mansion)</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>January 07, 2026 to February 04, 2026</t>
         </is>
